--- a/data/trans_orig/P1427-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>15391</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8438</v>
+        <v>8668</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24207</v>
+        <v>24649</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02187941711558</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01199455920560876</v>
+        <v>0.01232148087639779</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03441092526342335</v>
+        <v>0.03503974958585443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -764,19 +764,19 @@
         <v>20973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12450</v>
+        <v>13611</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31597</v>
+        <v>32120</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03008876473225665</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01786163531738195</v>
+        <v>0.01952593724041085</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04532950426439578</v>
+        <v>0.04607938481537118</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -785,19 +785,19 @@
         <v>36365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25413</v>
+        <v>25163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50370</v>
+        <v>49740</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02596527802851419</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0181451413502387</v>
+        <v>0.01796697889684998</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03596525740360693</v>
+        <v>0.03551521835804158</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>688078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>679262</v>
+        <v>678820</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>695031</v>
+        <v>694801</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9781205828844201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9655890747365766</v>
+        <v>0.9649602504141453</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9880054407943912</v>
+        <v>0.9876785191236022</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>631</v>
@@ -835,19 +835,19 @@
         <v>676077</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>665453</v>
+        <v>664930</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>684600</v>
+        <v>683439</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9699112352677434</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9546704957356044</v>
+        <v>0.953920615184629</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9821383646826181</v>
+        <v>0.9804740627595891</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1290</v>
@@ -856,19 +856,19 @@
         <v>1364154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1350149</v>
+        <v>1350779</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1375106</v>
+        <v>1375356</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9740347219714858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.964034742596393</v>
+        <v>0.9644847816419584</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9818548586497613</v>
+        <v>0.9820330211031501</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>20960</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13018</v>
+        <v>12896</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33671</v>
+        <v>34149</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02059050133665013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01278816934619887</v>
+        <v>0.01266900663762248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03307774921060024</v>
+        <v>0.03354717018877279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -981,19 +981,19 @@
         <v>27713</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17164</v>
+        <v>17925</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40901</v>
+        <v>40789</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02693263074907729</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01668057515284862</v>
+        <v>0.01742005584144066</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03974966880205984</v>
+        <v>0.03964031208309943</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -1002,19 +1002,19 @@
         <v>48673</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35583</v>
+        <v>35080</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64016</v>
+        <v>66228</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02377864774475824</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01738376523324656</v>
+        <v>0.01713816439675016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03127413514732041</v>
+        <v>0.03235472381928822</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>996987</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>984276</v>
+        <v>983798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1004929</v>
+        <v>1005051</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9794094986633499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9669222507893999</v>
+        <v>0.9664528298112273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9872118306538011</v>
+        <v>0.9873309933623776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>914</v>
@@ -1052,19 +1052,19 @@
         <v>1001260</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>988072</v>
+        <v>988184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1011809</v>
+        <v>1011048</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9730673692509227</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9602503311979401</v>
+        <v>0.9603596879169004</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9833194248471512</v>
+        <v>0.9825799441585593</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1833</v>
@@ -1073,19 +1073,19 @@
         <v>1998248</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1982905</v>
+        <v>1980693</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2011338</v>
+        <v>2011841</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9762213522552418</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9687258648526795</v>
+        <v>0.9676452761807117</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9826162347667534</v>
+        <v>0.9828618356032499</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>10242</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5080</v>
+        <v>5265</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18064</v>
+        <v>19532</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01351833313872195</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006704773874073624</v>
+        <v>0.006949283857097342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02384240373021183</v>
+        <v>0.02578076988104985</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1198,19 +1198,19 @@
         <v>16979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9873</v>
+        <v>9747</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27683</v>
+        <v>26821</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02184674875938256</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01270365303212595</v>
+        <v>0.01254168017290078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03562053897945001</v>
+        <v>0.03451045410940794</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1219,19 +1219,19 @@
         <v>27221</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17693</v>
+        <v>17606</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40213</v>
+        <v>39596</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01773558583194975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01152789245404119</v>
+        <v>0.01147145454755899</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02620066089605867</v>
+        <v>0.02579868365597853</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>747381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739559</v>
+        <v>738091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>752543</v>
+        <v>752358</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.986481666861278</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9761575962697906</v>
+        <v>0.9742192301189501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9932952261259265</v>
+        <v>0.9930507161429026</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>690</v>
@@ -1269,19 +1269,19 @@
         <v>760195</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>749491</v>
+        <v>750353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>767301</v>
+        <v>767427</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9781532512406175</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9643794610205496</v>
+        <v>0.9654895458905917</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9872963469678741</v>
+        <v>0.987458319827099</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1369</v>
@@ -1290,19 +1290,19 @@
         <v>1507576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1494584</v>
+        <v>1495201</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1517104</v>
+        <v>1517191</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9822644141680502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9737993391039418</v>
+        <v>0.9742013163440214</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9884721075459589</v>
+        <v>0.988528545452441</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>21388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13218</v>
+        <v>13165</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33220</v>
+        <v>33565</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02256776978186696</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01394700182542602</v>
+        <v>0.01389124451060412</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03505162162883115</v>
+        <v>0.0354158570772488</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1415,19 +1415,19 @@
         <v>28387</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18966</v>
+        <v>19209</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40569</v>
+        <v>41335</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02698624682147063</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01803012960798436</v>
+        <v>0.0182609781938622</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03856702527804883</v>
+        <v>0.03929520290034984</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -1436,19 +1436,19 @@
         <v>49775</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37134</v>
+        <v>36963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65658</v>
+        <v>67885</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02489208794373892</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01857052910358718</v>
+        <v>0.0184846322419473</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03283494963490743</v>
+        <v>0.03394856713349888</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>926351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>914519</v>
+        <v>914174</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>934521</v>
+        <v>934574</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9774322302181331</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9649483783711689</v>
+        <v>0.9645841429227511</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.986052998174574</v>
+        <v>0.9861087554893959</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>976</v>
@@ -1486,19 +1486,19 @@
         <v>1023514</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1011332</v>
+        <v>1010566</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1032935</v>
+        <v>1032692</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9730137531785293</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.961432974721951</v>
+        <v>0.9607047970996502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9819698703920156</v>
+        <v>0.9817390218061378</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1867</v>
@@ -1507,19 +1507,19 @@
         <v>1949865</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1933982</v>
+        <v>1931755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1962506</v>
+        <v>1962677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9751079120562611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9671650503650925</v>
+        <v>0.9660514328665012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9814294708964129</v>
+        <v>0.9815153677580529</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>67982</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52096</v>
+        <v>51203</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86698</v>
+        <v>86863</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01983836875696299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01520251524527415</v>
+        <v>0.01494209637510456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02530010572625466</v>
+        <v>0.02534816209930857</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>85</v>
@@ -1632,19 +1632,19 @@
         <v>94052</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76680</v>
+        <v>76436</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>115339</v>
+        <v>113875</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0264555038060549</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02156891674828244</v>
+        <v>0.02150028959023025</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03244326538359218</v>
+        <v>0.0320313471840005</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>146</v>
@@ -1653,19 +1653,19 @@
         <v>162034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>136700</v>
+        <v>138618</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>188860</v>
+        <v>192626</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02320774428187131</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01957924721141818</v>
+        <v>0.01985393277292434</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02704997425167421</v>
+        <v>0.02758938401501106</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3358797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3340081</v>
+        <v>3339916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3374683</v>
+        <v>3375576</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.980161631243037</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9746998942737454</v>
+        <v>0.9746518379006918</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9847974847547258</v>
+        <v>0.9850579036248954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3211</v>
@@ -1703,19 +1703,19 @@
         <v>3461046</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3439759</v>
+        <v>3441223</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3478418</v>
+        <v>3478662</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9735444961939451</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9675567346164079</v>
+        <v>0.9679686528159995</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9784310832517176</v>
+        <v>0.9784997104097698</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6359</v>
@@ -1724,19 +1724,19 @@
         <v>6819843</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6793017</v>
+        <v>6789251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6845177</v>
+        <v>6843259</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9767922557181287</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9729500257483259</v>
+        <v>0.9724106159849889</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9804207527885818</v>
+        <v>0.9801460672270756</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>9055</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4635</v>
+        <v>4254</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15441</v>
+        <v>15033</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.013418749927432</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006869249296687488</v>
+        <v>0.006303854746245478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02288296795608092</v>
+        <v>0.02227813900093313</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2089,19 +2089,19 @@
         <v>16331</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9303</v>
+        <v>9673</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25982</v>
+        <v>26550</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02427150533197306</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01382605426591865</v>
+        <v>0.01437634591869957</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03861498793454013</v>
+        <v>0.0394602694689742</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -2110,19 +2110,19 @@
         <v>25386</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16489</v>
+        <v>16669</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36537</v>
+        <v>36604</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0188372314963449</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01223519142966074</v>
+        <v>0.01236883691706041</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02711213585186602</v>
+        <v>0.02716166226155138</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>665745</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>659359</v>
+        <v>659767</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>670165</v>
+        <v>670546</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.986581250072568</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.977117032043919</v>
+        <v>0.9777218609990672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9931307507033122</v>
+        <v>0.9936961452537549</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>651</v>
@@ -2160,19 +2160,19 @@
         <v>656508</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>646857</v>
+        <v>646289</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>663536</v>
+        <v>663166</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9757284946680269</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9613850120654599</v>
+        <v>0.9605397305310258</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9861739457340813</v>
+        <v>0.9856236540813004</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1293</v>
@@ -2181,19 +2181,19 @@
         <v>1322253</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1311102</v>
+        <v>1311035</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1331150</v>
+        <v>1330970</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9811627685036551</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9728878641481341</v>
+        <v>0.9728383377384486</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9877648085703393</v>
+        <v>0.9876311630829397</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>8120</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3568</v>
+        <v>3668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14494</v>
+        <v>14226</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007942308156771003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003489524004392763</v>
+        <v>0.003587775384124739</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01417603993987896</v>
+        <v>0.01391363905574682</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -2306,19 +2306,19 @@
         <v>17191</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10416</v>
+        <v>9842</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28217</v>
+        <v>26862</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01648358073806713</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009987468008839828</v>
+        <v>0.009437230529265249</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02705623794323801</v>
+        <v>0.02575692517288063</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -2327,19 +2327,19 @@
         <v>25311</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15969</v>
+        <v>16836</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36483</v>
+        <v>35853</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01225529633467548</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007731765151536212</v>
+        <v>0.008151500891502109</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01766450627760668</v>
+        <v>0.01735936972985233</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>1014311</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1007937</v>
+        <v>1008205</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1018863</v>
+        <v>1018763</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.992057691843229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9858239600601211</v>
+        <v>0.9860863609442528</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9965104759956072</v>
+        <v>0.9964122246158752</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>962</v>
@@ -2377,19 +2377,19 @@
         <v>1025722</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1014696</v>
+        <v>1016051</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1032497</v>
+        <v>1033071</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9835164192619329</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9729437620567618</v>
+        <v>0.9742430748271197</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9900125319911597</v>
+        <v>0.990562769470735</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1904</v>
@@ -2398,19 +2398,19 @@
         <v>2040033</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2028861</v>
+        <v>2029491</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2049375</v>
+        <v>2048508</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9877447036653245</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9823354937223931</v>
+        <v>0.9826406302701477</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9922682348484636</v>
+        <v>0.9918484991084978</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>7181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2904</v>
+        <v>2850</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14045</v>
+        <v>14249</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009453703235489819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003823353003654192</v>
+        <v>0.003752387591817083</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01849090224120622</v>
+        <v>0.01875948918443049</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2523,19 +2523,19 @@
         <v>16169</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9030</v>
+        <v>9254</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26161</v>
+        <v>26915</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02059671770010829</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01150304608961258</v>
+        <v>0.01178786057025943</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03332537515622208</v>
+        <v>0.03428573148967761</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -2544,19 +2544,19 @@
         <v>23349</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14594</v>
+        <v>14819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34341</v>
+        <v>35072</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0151170441696741</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009448883010666499</v>
+        <v>0.00959430860170702</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02223322370041076</v>
+        <v>0.02270666418605597</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>752371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>745507</v>
+        <v>745303</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>756648</v>
+        <v>756702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9905462967645102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9815090977587942</v>
+        <v>0.9812405108155698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9961766469963459</v>
+        <v>0.9962476124081829</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>722</v>
@@ -2594,19 +2594,19 @@
         <v>768842</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>758850</v>
+        <v>758096</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>775981</v>
+        <v>775757</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9794032822998917</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.966674624843778</v>
+        <v>0.9657142685103225</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9884969539103875</v>
+        <v>0.9882121394297406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1411</v>
@@ -2615,19 +2615,19 @@
         <v>1521214</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1510222</v>
+        <v>1509491</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1529969</v>
+        <v>1529744</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9848829558303259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9777667762995894</v>
+        <v>0.9772933358139443</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9905511169893336</v>
+        <v>0.990405691398293</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>11032</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5609</v>
+        <v>5897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18508</v>
+        <v>18824</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01176679792189482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005982471953679816</v>
+        <v>0.006289320776482398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01974019740697026</v>
+        <v>0.02007742995432137</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -2740,19 +2740,19 @@
         <v>30775</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20394</v>
+        <v>21104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44220</v>
+        <v>44030</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02948401873465508</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01953909010000749</v>
+        <v>0.02021864047766152</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.042365474162424</v>
+        <v>0.04218342016061993</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -2761,19 +2761,19 @@
         <v>41807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30452</v>
+        <v>29929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56533</v>
+        <v>55828</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02110028290489016</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01536932180683485</v>
+        <v>0.01510558486026799</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02853245327710385</v>
+        <v>0.02817677601981397</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>926535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>919059</v>
+        <v>918743</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931958</v>
+        <v>931670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9882332020781052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9802598025930296</v>
+        <v>0.9799225700456786</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9940175280463202</v>
+        <v>0.9937106792235175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>933</v>
@@ -2811,19 +2811,19 @@
         <v>1013004</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>999559</v>
+        <v>999749</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1023385</v>
+        <v>1022675</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9705159812653449</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9576345258375761</v>
+        <v>0.9578165798393802</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9804609098999925</v>
+        <v>0.9797813595223386</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1853</v>
@@ -2832,19 +2832,19 @@
         <v>1939539</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1924813</v>
+        <v>1925518</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1950894</v>
+        <v>1951417</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9788997170951098</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9714675467228965</v>
+        <v>0.9718232239801861</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9846306781931652</v>
+        <v>0.984894415139732</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>35388</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24657</v>
+        <v>25221</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47439</v>
+        <v>47996</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01042561161703412</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007264238715259309</v>
+        <v>0.007430388268330931</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01397583083922973</v>
+        <v>0.01413992815500514</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -2957,19 +2957,19 @@
         <v>80465</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63686</v>
+        <v>62561</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101198</v>
+        <v>100594</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02270115731027841</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01796742505529133</v>
+        <v>0.01764986302069354</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02855033919060121</v>
+        <v>0.02837992088294745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -2978,19 +2978,19 @@
         <v>115853</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95195</v>
+        <v>95881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137536</v>
+        <v>140112</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0166962359652568</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01371901388429192</v>
+        <v>0.01381790514721977</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01982103987460975</v>
+        <v>0.02019220553175402</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3358962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3346911</v>
+        <v>3346354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3369693</v>
+        <v>3369129</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9895743883829659</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9860241691607702</v>
+        <v>0.9858600718449951</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9927357612847403</v>
+        <v>0.9925696117316694</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3268</v>
@@ -3028,19 +3028,19 @@
         <v>3464077</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3443344</v>
+        <v>3443948</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3480856</v>
+        <v>3481981</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9772988426897216</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9714496608093989</v>
+        <v>0.9716200791170525</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9820325749447086</v>
+        <v>0.9823501369793065</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6461</v>
@@ -3049,19 +3049,19 @@
         <v>6823039</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6801356</v>
+        <v>6798780</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6843697</v>
+        <v>6843011</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9833037640347432</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9801789601253903</v>
+        <v>0.9798077944682461</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9862809861157081</v>
+        <v>0.9861820948527803</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>29237</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22190</v>
+        <v>21656</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39128</v>
+        <v>38761</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04232821308135619</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03212586701206287</v>
+        <v>0.03135392754904922</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0566487219415307</v>
+        <v>0.05611819087381251</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -3414,19 +3414,19 @@
         <v>46032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37786</v>
+        <v>37713</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55582</v>
+        <v>56075</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06288277612597841</v>
+        <v>0.0628827761259784</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05161799581111234</v>
+        <v>0.05151835869186484</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07592858599904105</v>
+        <v>0.07660162168424746</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>168</v>
@@ -3435,19 +3435,19 @@
         <v>75269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63918</v>
+        <v>63421</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86963</v>
+        <v>88090</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05290399448471063</v>
+        <v>0.05290399448471064</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04492574861688061</v>
+        <v>0.04457659202202616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06112334682160609</v>
+        <v>0.06191547816158563</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>661473</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>651582</v>
+        <v>651949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668520</v>
+        <v>669054</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.957671786918644</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9433512780584691</v>
+        <v>0.9438818091261868</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.967874132987937</v>
+        <v>0.9686460724509508</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1124</v>
@@ -3485,19 +3485,19 @@
         <v>686001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>676451</v>
+        <v>675958</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>694247</v>
+        <v>694320</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9371172238740217</v>
+        <v>0.9371172238740216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.924071414000959</v>
+        <v>0.9233983783157524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9483820041888876</v>
+        <v>0.9484816413081352</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1799</v>
@@ -3506,19 +3506,19 @@
         <v>1347473</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1335779</v>
+        <v>1334652</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1358824</v>
+        <v>1359321</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9470960055152894</v>
+        <v>0.9470960055152893</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9388766531783941</v>
+        <v>0.9380845218384147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9550742513831194</v>
+        <v>0.9554234079779739</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>32096</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23094</v>
+        <v>24019</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42454</v>
+        <v>43815</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03059894555319175</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02201720484502427</v>
+        <v>0.02289916479591754</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04047386927789881</v>
+        <v>0.04177188887677905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -3631,19 +3631,19 @@
         <v>33527</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25420</v>
+        <v>25832</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42510</v>
+        <v>42538</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03134146862651481</v>
+        <v>0.03134146862651482</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02376335944199134</v>
+        <v>0.02414780907075876</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03973920837980626</v>
+        <v>0.03976500161329213</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -3652,19 +3652,19 @@
         <v>65623</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54412</v>
+        <v>53868</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81617</v>
+        <v>78455</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03097385411014312</v>
+        <v>0.03097385411014311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02568223558367768</v>
+        <v>0.02542572928864686</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03852331658843166</v>
+        <v>0.03703058972481649</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>1016821</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1006463</v>
+        <v>1005102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1025823</v>
+        <v>1024898</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9694010544468084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9595261307221008</v>
+        <v>0.9582281111232206</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9779827951549757</v>
+        <v>0.9771008352040825</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1452</v>
@@ -3702,19 +3702,19 @@
         <v>1036202</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1027219</v>
+        <v>1027191</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1044309</v>
+        <v>1043897</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9686585313734852</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9602607916201937</v>
+        <v>0.9602349983867079</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9762366405580086</v>
+        <v>0.9758521909292411</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2365</v>
@@ -3723,19 +3723,19 @@
         <v>2053023</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2037029</v>
+        <v>2040191</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2064234</v>
+        <v>2064778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9690261458898568</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9614766834115682</v>
+        <v>0.9629694102751832</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9743177644163222</v>
+        <v>0.9745742707113532</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>17853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11148</v>
+        <v>10726</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26906</v>
+        <v>26841</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02237033142821768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01396958778648813</v>
+        <v>0.01343963798957987</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03371441413542507</v>
+        <v>0.03363335481060394</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -3848,19 +3848,19 @@
         <v>38296</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29837</v>
+        <v>29732</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50871</v>
+        <v>49709</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04718907369869367</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03676574791350125</v>
+        <v>0.0366366473739008</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06268538124049876</v>
+        <v>0.06125355910957485</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -3869,19 +3869,19 @@
         <v>56148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44660</v>
+        <v>44730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69326</v>
+        <v>69469</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03488364648868125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02774614628604484</v>
+        <v>0.02778977815717089</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04307046920969609</v>
+        <v>0.04315976499873529</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>780200</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>771147</v>
+        <v>771212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>786905</v>
+        <v>787327</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9776296685717824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.966285585864575</v>
+        <v>0.9663666451893962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9860304122135122</v>
+        <v>0.9865603620104203</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>988</v>
@@ -3919,19 +3919,19 @@
         <v>773239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>760664</v>
+        <v>761826</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>781698</v>
+        <v>781803</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9528109263013064</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.937314618759501</v>
+        <v>0.9387464408904247</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9632342520864988</v>
+        <v>0.9633633526260992</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1639</v>
@@ -3940,19 +3940,19 @@
         <v>1553439</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1540261</v>
+        <v>1540118</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1564927</v>
+        <v>1564857</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.965116353511319</v>
+        <v>0.9651163535113187</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.956929530790304</v>
+        <v>0.9568402350012647</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9722538537139552</v>
+        <v>0.9722102218428291</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>30434</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22355</v>
+        <v>22353</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40898</v>
+        <v>41226</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03073947188134793</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02257908996452947</v>
+        <v>0.02257767956391398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04130864996004699</v>
+        <v>0.04164027224357599</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -4065,19 +4065,19 @@
         <v>47573</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38005</v>
+        <v>37970</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60943</v>
+        <v>59098</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04256543754895067</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03400519589844934</v>
+        <v>0.03397332169961266</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05452843126442065</v>
+        <v>0.05287744597028751</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -4086,19 +4086,19 @@
         <v>78007</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63851</v>
+        <v>64738</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93662</v>
+        <v>93418</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03701034713245771</v>
+        <v>0.03701034713245772</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03029421461149593</v>
+        <v>0.03071505143804018</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04443828728552767</v>
+        <v>0.04432231201718699</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>959628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>949164</v>
+        <v>948836</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>967707</v>
+        <v>967709</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9692605281186522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.958691350039953</v>
+        <v>0.958359727756424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9774209100354707</v>
+        <v>0.9774223204360861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1481</v>
@@ -4136,19 +4136,19 @@
         <v>1070061</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1056691</v>
+        <v>1058536</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1079629</v>
+        <v>1079664</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9574345624510492</v>
+        <v>0.9574345624510494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9454715687355791</v>
+        <v>0.9471225540297128</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9659948041015505</v>
+        <v>0.9660266783003874</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2442</v>
@@ -4157,19 +4157,19 @@
         <v>2029689</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2014034</v>
+        <v>2014278</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2043845</v>
+        <v>2042958</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9629896528675421</v>
+        <v>0.9629896528675423</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9555617127144723</v>
+        <v>0.9556776879828132</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9697057853885042</v>
+        <v>0.9692849485619598</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>109619</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94149</v>
+        <v>92328</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>130823</v>
+        <v>127290</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03107340808444805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02668816057597135</v>
+        <v>0.02617201660941181</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03708406509894682</v>
+        <v>0.03608254743302292</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>312</v>
@@ -4282,19 +4282,19 @@
         <v>165427</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>147801</v>
+        <v>149909</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186536</v>
+        <v>189505</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04433941528058168</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03961516006731217</v>
+        <v>0.04017999867252654</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0499970974055269</v>
+        <v>0.05079300706367931</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>483</v>
@@ -4303,19 +4303,19 @@
         <v>275046</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>251155</v>
+        <v>252223</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>302804</v>
+        <v>304706</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03789208662551559</v>
+        <v>0.03789208662551558</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03460069784431748</v>
+        <v>0.03474782421906175</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04171612553916271</v>
+        <v>0.04197822691233973</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3418123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3396919</v>
+        <v>3400452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3433593</v>
+        <v>3435414</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.968926591915552</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9629159349010532</v>
+        <v>0.963917452566977</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9733118394240289</v>
+        <v>0.9738279833905882</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5045</v>
@@ -4353,19 +4353,19 @@
         <v>3565504</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3544395</v>
+        <v>3541426</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3583130</v>
+        <v>3581022</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9556605847194184</v>
+        <v>0.9556605847194181</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9500029025944733</v>
+        <v>0.9492069929363209</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.960384839932688</v>
+        <v>0.9598200013274735</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8245</v>
@@ -4374,19 +4374,19 @@
         <v>6983626</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6955868</v>
+        <v>6953966</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7007517</v>
+        <v>7006449</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9621079133744845</v>
+        <v>0.9621079133744844</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9582838744608373</v>
+        <v>0.9580217730876607</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9653993021556825</v>
+        <v>0.9652521757809385</v>
       </c>
     </row>
     <row r="18">
